--- a/Code/Results/Cases/Case_9_61/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_9_61/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9939407203567222</v>
+        <v>0.9943907153182339</v>
       </c>
       <c r="D2">
-        <v>1.017274385197345</v>
+        <v>1.017470669130521</v>
       </c>
       <c r="E2">
-        <v>1.001262212280912</v>
+        <v>1.001651295969654</v>
       </c>
       <c r="F2">
-        <v>1.0139973715303</v>
+        <v>1.0141923111063</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.045283023742071</v>
+        <v>1.045382653731249</v>
       </c>
       <c r="J2">
-        <v>1.016304186279446</v>
+        <v>1.0167405033818</v>
       </c>
       <c r="K2">
-        <v>1.028498193903388</v>
+        <v>1.028691859331633</v>
       </c>
       <c r="L2">
-        <v>1.012703990446336</v>
+        <v>1.013087673455652</v>
       </c>
       <c r="M2">
-        <v>1.025265085091582</v>
+        <v>1.025457402926047</v>
       </c>
       <c r="N2">
-        <v>1.009443266685857</v>
+        <v>1.011708470592815</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.028567909983436</v>
+        <v>1.028720119213605</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.031220840655852</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.031366640823309</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.01980613544781</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9977027843681975</v>
+        <v>0.9980046937992322</v>
       </c>
       <c r="D3">
-        <v>1.019839940106615</v>
+        <v>1.019834606181964</v>
       </c>
       <c r="E3">
-        <v>1.004202520790485</v>
+        <v>1.004463568527094</v>
       </c>
       <c r="F3">
-        <v>1.017036392003259</v>
+        <v>1.017167004905094</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.046088051519936</v>
+        <v>1.046085341237327</v>
       </c>
       <c r="J3">
-        <v>1.018256270304477</v>
+        <v>1.018549901062683</v>
       </c>
       <c r="K3">
-        <v>1.030225105875116</v>
+        <v>1.030219836937947</v>
       </c>
       <c r="L3">
-        <v>1.014781910506754</v>
+        <v>1.015039653969822</v>
       </c>
       <c r="M3">
-        <v>1.027455832530892</v>
+        <v>1.027584843406783</v>
       </c>
       <c r="N3">
-        <v>1.010096995832388</v>
+        <v>1.01219046617688</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.030301766860599</v>
+        <v>1.030403871783353</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.032439251388155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.032444105284713</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.020109021689468</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.000090125080568</v>
+        <v>1.000299239116571</v>
       </c>
       <c r="D4">
-        <v>1.021467888817822</v>
+        <v>1.021335559620454</v>
       </c>
       <c r="E4">
-        <v>1.006074196147692</v>
+        <v>1.006254874546813</v>
       </c>
       <c r="F4">
-        <v>1.01897284703229</v>
+        <v>1.019063237084133</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.046583543370595</v>
+        <v>1.046516256992327</v>
       </c>
       <c r="J4">
-        <v>1.019491525730318</v>
+        <v>1.019695293423188</v>
       </c>
       <c r="K4">
-        <v>1.0313139398073</v>
+        <v>1.031183126136479</v>
       </c>
       <c r="L4">
-        <v>1.016099859634881</v>
+        <v>1.01627839039958</v>
       </c>
       <c r="M4">
-        <v>1.028847554808364</v>
+        <v>1.028936903660564</v>
       </c>
       <c r="N4">
-        <v>1.010510713324643</v>
+        <v>1.012495651458257</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.031403236737004</v>
+        <v>1.031473951266722</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.033210069714058</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.033126231030876</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.020297210029781</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.00108505381636</v>
+        <v>1.001255799834239</v>
       </c>
       <c r="D5">
-        <v>1.022148060152829</v>
+        <v>1.021963128550375</v>
       </c>
       <c r="E5">
-        <v>1.006855880857682</v>
+        <v>1.007003294332264</v>
       </c>
       <c r="F5">
-        <v>1.019780909490137</v>
+        <v>1.019854688519974</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.046787519147881</v>
+        <v>1.046693457736241</v>
       </c>
       <c r="J5">
-        <v>1.020006459589481</v>
+        <v>1.020172970569285</v>
       </c>
       <c r="K5">
-        <v>1.031768240447318</v>
+        <v>1.03158537069782</v>
       </c>
       <c r="L5">
-        <v>1.016649717344982</v>
+        <v>1.01679542570988</v>
       </c>
       <c r="M5">
-        <v>1.029427551324568</v>
+        <v>1.029500503321359</v>
       </c>
       <c r="N5">
-        <v>1.010683526665376</v>
+        <v>1.012623201410306</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.031862270831527</v>
+        <v>1.031920008146249</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.033538537993919</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.033418600203075</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.020375439446075</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.001254152847532</v>
+        <v>1.001418438177176</v>
       </c>
       <c r="D6">
-        <v>1.022265837200065</v>
+        <v>1.02207210343458</v>
       </c>
       <c r="E6">
-        <v>1.006989178408169</v>
+        <v>1.007130982130839</v>
       </c>
       <c r="F6">
-        <v>1.019917339978061</v>
+        <v>1.019988323111898</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.046823456859683</v>
+        <v>1.046724913484065</v>
       </c>
       <c r="J6">
-        <v>1.020095152511977</v>
+        <v>1.020255383984318</v>
       </c>
       <c r="K6">
-        <v>1.03184809492631</v>
+        <v>1.031656511305793</v>
       </c>
       <c r="L6">
-        <v>1.016744118200587</v>
+        <v>1.01688428928331</v>
       </c>
       <c r="M6">
-        <v>1.02952573014891</v>
+        <v>1.029595921261555</v>
       </c>
       <c r="N6">
-        <v>1.010713706311222</v>
+        <v>1.012645522945971</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.031939973729987</v>
+        <v>1.031995525957415</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.033603823522769</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.033478592160518</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.020389625892581</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.00011059982222</v>
+        <v>1.000326436719667</v>
       </c>
       <c r="D7">
-        <v>1.021487671487692</v>
+        <v>1.021359704338134</v>
       </c>
       <c r="E7">
-        <v>1.006091254284946</v>
+        <v>1.006277942364758</v>
       </c>
       <c r="F7">
-        <v>1.018986756954154</v>
+        <v>1.019080052529596</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.046591715281047</v>
+        <v>1.046526646622784</v>
       </c>
       <c r="J7">
-        <v>1.01950538721406</v>
+        <v>1.019715708263381</v>
       </c>
       <c r="K7">
-        <v>1.031330579159128</v>
+        <v>1.031204077011332</v>
       </c>
       <c r="L7">
-        <v>1.016113738013264</v>
+        <v>1.016298207878936</v>
       </c>
       <c r="M7">
-        <v>1.028858378090307</v>
+        <v>1.028950599396885</v>
       </c>
       <c r="N7">
-        <v>1.010516490899574</v>
+        <v>1.012527922756843</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.031411802748853</v>
+        <v>1.031484790661661</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.033242125309863</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.033163332355686</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.020302777920306</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9952306972476833</v>
+        <v>0.9956525296276532</v>
       </c>
       <c r="D8">
-        <v>1.01816099374558</v>
+        <v>1.018304068605063</v>
       </c>
       <c r="E8">
-        <v>1.002270440790024</v>
+        <v>1.002635872265135</v>
       </c>
       <c r="F8">
-        <v>1.015034501117127</v>
+        <v>1.015217157214068</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.045566898527458</v>
+        <v>1.045639546631195</v>
       </c>
       <c r="J8">
-        <v>1.016978157235877</v>
+        <v>1.017387598800464</v>
       </c>
       <c r="K8">
-        <v>1.029100456187367</v>
+        <v>1.029241678913179</v>
       </c>
       <c r="L8">
-        <v>1.013419745095492</v>
+        <v>1.013780256976682</v>
       </c>
       <c r="M8">
-        <v>1.026014599934192</v>
+        <v>1.026194873349072</v>
       </c>
       <c r="N8">
-        <v>1.009670433522472</v>
+        <v>1.011960902570218</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.029161110510485</v>
+        <v>1.029303787108334</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.031669826817627</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.031780807618701</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.019918230183758</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9862453640416141</v>
+        <v>0.9870315754002515</v>
       </c>
       <c r="D9">
-        <v>1.012028291874618</v>
+        <v>1.01266064597549</v>
       </c>
       <c r="E9">
-        <v>0.9952813529390179</v>
+        <v>0.9959609966899787</v>
       </c>
       <c r="F9">
-        <v>1.00782600401057</v>
+        <v>1.008167519521021</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.043554475250919</v>
+        <v>1.04387478863936</v>
       </c>
       <c r="J9">
-        <v>1.012293361922056</v>
+        <v>1.013050742814088</v>
       </c>
       <c r="K9">
-        <v>1.024929186897651</v>
+        <v>1.025551599179723</v>
       </c>
       <c r="L9">
-        <v>1.008451453648574</v>
+        <v>1.009119945580979</v>
       </c>
       <c r="M9">
-        <v>1.020793373114325</v>
+        <v>1.021129459842607</v>
       </c>
       <c r="N9">
-        <v>1.008100578844912</v>
+        <v>1.010814667105225</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.025028780770573</v>
+        <v>1.025294776704481</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.028717192513843</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.029168146418917</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.019170234801871</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9800731830926684</v>
+        <v>0.9811485984731143</v>
       </c>
       <c r="D10">
-        <v>1.007825053061537</v>
+        <v>1.008820390634386</v>
       </c>
       <c r="E10">
-        <v>0.9905250591175799</v>
+        <v>0.9914537960463368</v>
       </c>
       <c r="F10">
-        <v>1.003169119862289</v>
+        <v>1.003636788154518</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.042108696096624</v>
+        <v>1.042612091006345</v>
       </c>
       <c r="J10">
-        <v>1.00910033914567</v>
+        <v>1.010130647578065</v>
       </c>
       <c r="K10">
-        <v>1.022054446590884</v>
+        <v>1.023032195709857</v>
       </c>
       <c r="L10">
-        <v>1.005067520111712</v>
+        <v>1.005979088524875</v>
       </c>
       <c r="M10">
-        <v>1.017481389653954</v>
+        <v>1.017940688270492</v>
       </c>
       <c r="N10">
-        <v>1.007036237136938</v>
+        <v>1.010158304002857</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.022459962990911</v>
+        <v>1.022823452800935</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.02670152695698</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.02740541688599</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.018651347550765</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9780599843737364</v>
+        <v>0.9792705215299324</v>
       </c>
       <c r="D11">
-        <v>1.006487299480154</v>
+        <v>1.007625781559829</v>
       </c>
       <c r="E11">
-        <v>0.9890634332779804</v>
+        <v>0.9901077108099242</v>
       </c>
       <c r="F11">
-        <v>1.003638951357608</v>
+        <v>1.004161337007977</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.04171557665687</v>
+        <v>1.042290998269285</v>
       </c>
       <c r="J11">
-        <v>1.00837486078554</v>
+        <v>1.009531842210477</v>
       </c>
       <c r="K11">
-        <v>1.021287903114805</v>
+        <v>1.022405305583326</v>
       </c>
       <c r="L11">
-        <v>1.004194587016923</v>
+        <v>1.005218623930479</v>
       </c>
       <c r="M11">
-        <v>1.018492567128639</v>
+        <v>1.019005200991225</v>
       </c>
       <c r="N11">
-        <v>1.006836785819732</v>
+        <v>1.010258997174422</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.023703987679861</v>
+        <v>1.024109475381212</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.02619276985587</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.02699861134073</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.018551010044102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9775416006070804</v>
+        <v>0.9787922891624576</v>
       </c>
       <c r="D12">
-        <v>1.006151924178335</v>
+        <v>1.007329496974312</v>
       </c>
       <c r="E12">
-        <v>0.9887255838690906</v>
+        <v>0.9898031128615182</v>
       </c>
       <c r="F12">
-        <v>1.004651915490946</v>
+        <v>1.005188568607232</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.041649467994253</v>
+        <v>1.042244510977468</v>
       </c>
       <c r="J12">
-        <v>1.008327819733883</v>
+        <v>1.009522129845523</v>
       </c>
       <c r="K12">
-        <v>1.021162204540324</v>
+        <v>1.022317609799416</v>
       </c>
       <c r="L12">
-        <v>1.004072019120599</v>
+        <v>1.005128311738086</v>
       </c>
       <c r="M12">
-        <v>1.019690531542901</v>
+        <v>1.020217034396176</v>
       </c>
       <c r="N12">
-        <v>1.00685338915779</v>
+        <v>1.01038092944459</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.024982693761604</v>
+        <v>1.025399006564131</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.026103894902115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.026936607648953</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.018551131957686</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9781446758921232</v>
+        <v>0.9793552281011352</v>
       </c>
       <c r="D13">
-        <v>1.006575575560689</v>
+        <v>1.007708031909158</v>
       </c>
       <c r="E13">
-        <v>0.9892331461129331</v>
+        <v>0.9902744100281008</v>
       </c>
       <c r="F13">
-        <v>1.00617471000318</v>
+        <v>1.006691778799382</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.041841459027585</v>
+        <v>1.042413740868168</v>
       </c>
       <c r="J13">
-        <v>1.00880756011052</v>
+        <v>1.00996383668876</v>
       </c>
       <c r="K13">
-        <v>1.02153425848216</v>
+        <v>1.02264549020263</v>
       </c>
       <c r="L13">
-        <v>1.004524832252995</v>
+        <v>1.005545670260299</v>
       </c>
       <c r="M13">
-        <v>1.021140920946405</v>
+        <v>1.021648280955338</v>
       </c>
       <c r="N13">
-        <v>1.007041564547172</v>
+        <v>1.010494854201745</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.026409483742131</v>
+        <v>1.026810557055342</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.026364432956107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.027165665759433</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.018632228547539</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9790653586114264</v>
+        <v>0.9802131071679557</v>
       </c>
       <c r="D14">
-        <v>1.007210386349675</v>
+        <v>1.0082746409573</v>
       </c>
       <c r="E14">
-        <v>0.9899632685001535</v>
+        <v>0.9909493201504983</v>
       </c>
       <c r="F14">
-        <v>1.007444523677169</v>
+        <v>1.007933497430654</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.042089618267517</v>
+        <v>1.042627530368692</v>
       </c>
       <c r="J14">
-        <v>1.0093726833122</v>
+        <v>1.010469725523409</v>
       </c>
       <c r="K14">
-        <v>1.022014386645758</v>
+        <v>1.023058945196542</v>
       </c>
       <c r="L14">
-        <v>1.005094198956042</v>
+        <v>1.006061157448216</v>
       </c>
       <c r="M14">
-        <v>1.022244186161003</v>
+        <v>1.022724109275105</v>
       </c>
       <c r="N14">
-        <v>1.007247908578337</v>
+        <v>1.010570172613546</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.027456615960647</v>
+        <v>1.027835948209254</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.026705348158625</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.027459571143862</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.018724601453287</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9795441515143225</v>
+        <v>0.980659373123501</v>
       </c>
       <c r="D15">
-        <v>1.007539481751567</v>
+        <v>1.008568636168193</v>
       </c>
       <c r="E15">
-        <v>0.9903350035466486</v>
+        <v>0.9912927707495826</v>
       </c>
       <c r="F15">
-        <v>1.007913539285669</v>
+        <v>1.008388400396638</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.042210960430127</v>
+        <v>1.04273118738389</v>
       </c>
       <c r="J15">
-        <v>1.009636983539735</v>
+        <v>1.010703371927947</v>
       </c>
       <c r="K15">
-        <v>1.022249456034426</v>
+        <v>1.023259709675744</v>
       </c>
       <c r="L15">
-        <v>1.005368562872397</v>
+        <v>1.006307929681837</v>
       </c>
       <c r="M15">
-        <v>1.022616638056689</v>
+        <v>1.023082780366672</v>
       </c>
       <c r="N15">
-        <v>1.007340052137183</v>
+        <v>1.01059318594882</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.027788860878408</v>
+        <v>1.028157290972928</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.026877492239238</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.027608026087691</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.018767562711592</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9820276597711149</v>
+        <v>0.9829809756234138</v>
       </c>
       <c r="D16">
-        <v>1.009231076548961</v>
+        <v>1.01008283446771</v>
       </c>
       <c r="E16">
-        <v>0.9922332842680114</v>
+        <v>0.9930514810155329</v>
       </c>
       <c r="F16">
-        <v>1.009632771640096</v>
+        <v>1.010038825322423</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.042800778769553</v>
+        <v>1.043231599602257</v>
       </c>
       <c r="J16">
-        <v>1.010893808207471</v>
+        <v>1.011807485318576</v>
       </c>
       <c r="K16">
-        <v>1.023399443437379</v>
+        <v>1.024236245582435</v>
       </c>
       <c r="L16">
-        <v>1.006707104771468</v>
+        <v>1.007510286377725</v>
       </c>
       <c r="M16">
-        <v>1.023794081204733</v>
+        <v>1.024193008380381</v>
       </c>
       <c r="N16">
-        <v>1.00775398427619</v>
+        <v>1.010675407451401</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.028680444202575</v>
+        <v>1.028995757858479</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.027693792970939</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.028301981310533</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.018968559720631</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.983458825973716</v>
+        <v>0.9843281139728134</v>
       </c>
       <c r="D17">
-        <v>1.010202326939066</v>
+        <v>1.010958518765307</v>
       </c>
       <c r="E17">
-        <v>0.9933157195370281</v>
+        <v>0.9940618814313908</v>
       </c>
       <c r="F17">
-        <v>1.010291983792705</v>
+        <v>1.010662835954458</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.043122396533674</v>
+        <v>1.043505027921932</v>
       </c>
       <c r="J17">
-        <v>1.01156784060602</v>
+        <v>1.012402152681641</v>
       </c>
       <c r="K17">
-        <v>1.024033806246913</v>
+        <v>1.0247770954751</v>
       </c>
       <c r="L17">
-        <v>1.007441972324283</v>
+        <v>1.008174834669916</v>
       </c>
       <c r="M17">
-        <v>1.024121932017854</v>
+        <v>1.024486454812326</v>
       </c>
       <c r="N17">
-        <v>1.007965406493577</v>
+        <v>1.010729241810649</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.028809330872696</v>
+        <v>1.029097480272162</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.028144936002032</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.028687250119155</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.019075621689834</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9840847595486546</v>
+        <v>0.9849210960814895</v>
       </c>
       <c r="D18">
-        <v>1.010615778212084</v>
+        <v>1.011333490893331</v>
       </c>
       <c r="E18">
-        <v>0.9937632230746011</v>
+        <v>0.9944817300837372</v>
       </c>
       <c r="F18">
-        <v>1.009932499397925</v>
+        <v>1.010290494739544</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.043231462308986</v>
+        <v>1.043594703612196</v>
       </c>
       <c r="J18">
-        <v>1.011762808284643</v>
+        <v>1.012566124127445</v>
       </c>
       <c r="K18">
-        <v>1.024253751344925</v>
+        <v>1.024959419709167</v>
       </c>
       <c r="L18">
-        <v>1.00769048688097</v>
+        <v>1.008396400783966</v>
       </c>
       <c r="M18">
-        <v>1.023581959507543</v>
+        <v>1.023933933893475</v>
       </c>
       <c r="N18">
-        <v>1.008006819394014</v>
+        <v>1.010714603073805</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.028142140311629</v>
+        <v>1.028420429502685</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.028288683751535</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.028803264890733</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.019102591627608</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9839526764371233</v>
+        <v>0.9847999689502805</v>
       </c>
       <c r="D19">
-        <v>1.010511218475049</v>
+        <v>1.011242198854937</v>
       </c>
       <c r="E19">
-        <v>0.993610548941825</v>
+        <v>0.9943395879752911</v>
       </c>
       <c r="F19">
-        <v>1.00854250676267</v>
+        <v>1.008907103977321</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.043144187466734</v>
+        <v>1.043514168119781</v>
       </c>
       <c r="J19">
-        <v>1.011497684491253</v>
+        <v>1.012311708138522</v>
       </c>
       <c r="K19">
-        <v>1.024087364352754</v>
+        <v>1.024806140371176</v>
       </c>
       <c r="L19">
-        <v>1.007475350547986</v>
+        <v>1.008191675729755</v>
       </c>
       <c r="M19">
-        <v>1.022151635457715</v>
+        <v>1.022510111871489</v>
       </c>
       <c r="N19">
-        <v>1.007888384753434</v>
+        <v>1.010613931818113</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.026681253624012</v>
+        <v>1.026964778675764</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.028177505572894</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.028701978647365</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.019053859660046</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9816927181967336</v>
+        <v>0.9826712652609851</v>
       </c>
       <c r="D20">
-        <v>1.008940227388131</v>
+        <v>1.009826508023364</v>
       </c>
       <c r="E20">
-        <v>0.9917736057900483</v>
+        <v>0.9926181578455372</v>
       </c>
       <c r="F20">
-        <v>1.004393785000905</v>
+        <v>1.004819186416108</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.042502156509959</v>
+        <v>1.042950573087689</v>
       </c>
       <c r="J20">
-        <v>1.009948063676004</v>
+        <v>1.010886919894282</v>
       </c>
       <c r="K20">
-        <v>1.02282767442643</v>
+        <v>1.023698743143943</v>
       </c>
       <c r="L20">
-        <v>1.005962665392582</v>
+        <v>1.006792061962826</v>
       </c>
       <c r="M20">
-        <v>1.01835981249171</v>
+        <v>1.018777822263912</v>
       </c>
       <c r="N20">
-        <v>1.007322329553308</v>
+        <v>1.010262468476154</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.023144399386115</v>
+        <v>1.023475217207051</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.027290805874308</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.027923353342331</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.018790797691602</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9769084341914598</v>
+        <v>0.9782164336172903</v>
       </c>
       <c r="D21">
-        <v>1.005675847835108</v>
+        <v>1.006916910765752</v>
       </c>
       <c r="E21">
-        <v>0.9880834378257389</v>
+        <v>0.9892154003988034</v>
       </c>
       <c r="F21">
-        <v>1.000411682507908</v>
+        <v>1.000981689957892</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.041335530655376</v>
+        <v>1.041962738757551</v>
       </c>
       <c r="J21">
-        <v>1.007404367192343</v>
+        <v>1.008654019353003</v>
       </c>
       <c r="K21">
-        <v>1.020550481533334</v>
+        <v>1.0217684144737</v>
       </c>
       <c r="L21">
-        <v>1.003294145594131</v>
+        <v>1.004404011942546</v>
       </c>
       <c r="M21">
-        <v>1.015385259633521</v>
+        <v>1.015944487759823</v>
       </c>
       <c r="N21">
-        <v>1.006466388041056</v>
+        <v>1.010084690354285</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.020748513502308</v>
+        <v>1.02119111750215</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.025683980528234</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.026562116890566</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.018387130935232</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9738740772060965</v>
+        <v>0.9753908630162875</v>
       </c>
       <c r="D22">
-        <v>1.003604573361953</v>
+        <v>1.005070051361997</v>
       </c>
       <c r="E22">
-        <v>0.9857550136858998</v>
+        <v>0.9870689509998442</v>
       </c>
       <c r="F22">
-        <v>0.9980235691841189</v>
+        <v>0.9986852414651844</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.040583222409732</v>
+        <v>1.041323323600301</v>
       </c>
       <c r="J22">
-        <v>1.005805387775575</v>
+        <v>1.00725050692545</v>
       </c>
       <c r="K22">
-        <v>1.019104959561568</v>
+        <v>1.020541734231487</v>
       </c>
       <c r="L22">
-        <v>1.001614048765161</v>
+        <v>1.002901001862663</v>
       </c>
       <c r="M22">
-        <v>1.013634281496847</v>
+        <v>1.014282789050611</v>
       </c>
       <c r="N22">
-        <v>1.00592939327565</v>
+        <v>1.009969270663187</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.019362690885435</v>
+        <v>1.019875956587119</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.024648237352732</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.025679818752774</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.018128755075254</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9754832551721786</v>
+        <v>0.9768772338292242</v>
       </c>
       <c r="D23">
-        <v>1.004698470640876</v>
+        <v>1.006036315936504</v>
       </c>
       <c r="E23">
-        <v>0.9869880154882809</v>
+        <v>0.9881946239477633</v>
       </c>
       <c r="F23">
-        <v>0.9992910484707265</v>
+        <v>0.9998988167854937</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.040980829805674</v>
+        <v>1.041656725070781</v>
       </c>
       <c r="J23">
-        <v>1.006651141602489</v>
+        <v>1.007981219352989</v>
       </c>
       <c r="K23">
-        <v>1.019866752910526</v>
+        <v>1.021179070095767</v>
       </c>
       <c r="L23">
-        <v>1.002502821764122</v>
+        <v>1.003685303074195</v>
       </c>
       <c r="M23">
-        <v>1.014563425452573</v>
+        <v>1.015159420423394</v>
       </c>
       <c r="N23">
-        <v>1.006212171027203</v>
+        <v>1.009986243558152</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.020098068048453</v>
+        <v>1.020569771805768</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.025177112635332</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.026119752021028</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.01826204845679</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9816901123325441</v>
+        <v>0.9826692910938166</v>
       </c>
       <c r="D24">
-        <v>1.008928631453381</v>
+        <v>1.009815418025123</v>
       </c>
       <c r="E24">
-        <v>0.9917621589388727</v>
+        <v>0.9926074797981802</v>
       </c>
       <c r="F24">
-        <v>1.004198278664915</v>
+        <v>1.004624290365082</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.042488000652748</v>
+        <v>1.042936680618077</v>
       </c>
       <c r="J24">
-        <v>1.00991167167941</v>
+        <v>1.010851189771694</v>
       </c>
       <c r="K24">
-        <v>1.022800743847384</v>
+        <v>1.023672328948222</v>
       </c>
       <c r="L24">
-        <v>1.005935501384182</v>
+        <v>1.006765672129215</v>
       </c>
       <c r="M24">
-        <v>1.018152066779499</v>
+        <v>1.018570682045053</v>
       </c>
       <c r="N24">
-        <v>1.007304527202776</v>
+        <v>1.010244922791258</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.022938314517019</v>
+        <v>1.02326962868916</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.027244039978805</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.027874287041925</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.018781265054479</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9886256133963304</v>
+        <v>0.9893051133779284</v>
       </c>
       <c r="D25">
-        <v>1.013660577915931</v>
+        <v>1.014156627554483</v>
       </c>
       <c r="E25">
-        <v>0.9971286164926714</v>
+        <v>0.9977160594576083</v>
       </c>
       <c r="F25">
-        <v>1.009723927772373</v>
+        <v>1.010018844953608</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.04410661831896</v>
+        <v>1.044358042409169</v>
       </c>
       <c r="J25">
-        <v>1.013541929479061</v>
+        <v>1.014197842656597</v>
       </c>
       <c r="K25">
-        <v>1.026050468636068</v>
+        <v>1.026539084279235</v>
       </c>
       <c r="L25">
-        <v>1.009771671130992</v>
+        <v>1.010349934431114</v>
       </c>
       <c r="M25">
-        <v>1.022173144647412</v>
+        <v>1.02246359694888</v>
       </c>
       <c r="N25">
-        <v>1.008520881424686</v>
+        <v>1.011088693094549</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.026120800670192</v>
+        <v>1.026350678862722</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.029538915926726</v>
+        <v>1.029898059976423</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.019373781492732</v>
       </c>
     </row>
   </sheetData>
